--- a/db/patient_data.xlsx
+++ b/db/patient_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,12 +512,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heru</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
+          <t>MACHRUP, TN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>HEAD</t>
@@ -525,38 +523,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20180209</t>
+          <t>20150128</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.66</v>
-      </c>
+        <v>17.2908822613249</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.54</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,155 +556,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabella</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HEAD</t>
-        </is>
-      </c>
+          <t>XXXXXX-001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20181031</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>21</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>20170209</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.66</v>
-      </c>
+        <v>15.61301197983761</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bagaskara</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>HEAD</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20180209</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>29</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mayang</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HEAD</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20181031</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>21</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="L5" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.54</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/db/patient_data.xlsx
+++ b/db/patient_data.xlsx
@@ -1,43 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Protocol_ID</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex_ID</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>CTDIVol</t>
+  </si>
+  <si>
+    <t>DE_WED</t>
+  </si>
+  <si>
+    <t>SSDE</t>
+  </si>
+  <si>
+    <t>DLP</t>
+  </si>
+  <si>
+    <t>DLPc</t>
+  </si>
+  <si>
+    <t>Effective_Dose</t>
+  </si>
+  <si>
+    <t>XXXXXX-001</t>
+  </si>
+  <si>
+    <t>20170209</t>
+  </si>
+  <si>
+    <t>MACHRUP, TN</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>20150128</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,95 +113,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,168 +413,532 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>protocol_num</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>protocol</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sex_id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CTDIVol</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>DE_WED</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>SSDE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>DLP</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>DLPc</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Effective_Dose</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MACHRUP, TN</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HEAD</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20150128</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>72</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="n">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>15.61301197983761</v>
+      </c>
+      <c r="L2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>19.5062879610574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>19.5062879610574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>72</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>72</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>72</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>72</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>72</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>72</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
         <v>17.2908822613249</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
+      <c r="L21">
         <v>70</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>XXXXXX-001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20170209</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J22">
         <v>15.61301197983761</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="L22">
         <v>138</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>